--- a/data/trans_orig/P2A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>337075</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>311002</v>
+        <v>309039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>362548</v>
+        <v>362900</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4856905603549962</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4481213151271117</v>
+        <v>0.4452937770418353</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5223944403566919</v>
+        <v>0.5229021658745406</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>438</v>
@@ -765,19 +765,19 @@
         <v>433047</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>405741</v>
+        <v>407629</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>457006</v>
+        <v>457724</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6291074234604016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5894395877425426</v>
+        <v>0.5921811854487443</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6639138230615235</v>
+        <v>0.6649577083180044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>774</v>
@@ -786,19 +786,19 @@
         <v>770122</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>731833</v>
+        <v>736648</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>806049</v>
+        <v>806824</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5571053292910899</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5294072966521953</v>
+        <v>0.5328905675143937</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5830950520983886</v>
+        <v>0.5836553841542131</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>356937</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>331464</v>
+        <v>331112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>383010</v>
+        <v>384973</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5143094396450038</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4776055596433081</v>
+        <v>0.4770978341254595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5518786848728884</v>
+        <v>0.5547062229581647</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>258</v>
@@ -836,19 +836,19 @@
         <v>255304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>231345</v>
+        <v>230627</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282610</v>
+        <v>280722</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3708925765395985</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3360861769384765</v>
+        <v>0.3350422916819957</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4105604122574575</v>
+        <v>0.4078188145512558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>605</v>
@@ -857,19 +857,19 @@
         <v>612241</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>576314</v>
+        <v>575539</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>650530</v>
+        <v>645715</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4428946707089101</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4169049479016114</v>
+        <v>0.4163446158457869</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4705927033478048</v>
+        <v>0.4671094324856064</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>468276</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>434259</v>
+        <v>435244</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>499619</v>
+        <v>501097</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4868748543368626</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4515062883604178</v>
+        <v>0.452530520973174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.51946254458215</v>
+        <v>0.5209987508472983</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>592</v>
@@ -982,19 +982,19 @@
         <v>631638</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>598774</v>
+        <v>601826</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>663490</v>
+        <v>662409</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6522541139780338</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6183174612379214</v>
+        <v>0.621468525132219</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6851457235704128</v>
+        <v>0.6840293694054171</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1038</v>
@@ -1003,19 +1003,19 @@
         <v>1099915</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1055974</v>
+        <v>1053724</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1147059</v>
+        <v>1141235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5698469310856529</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5470819514675909</v>
+        <v>0.5459163407902927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5942715180267581</v>
+        <v>0.5912544171885857</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>493524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462181</v>
+        <v>460703</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>527541</v>
+        <v>526556</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5131251456631375</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.48053745541785</v>
+        <v>0.4790012491527016</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5484937116395823</v>
+        <v>0.5474694790268259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>316</v>
@@ -1053,19 +1053,19 @@
         <v>336755</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>304903</v>
+        <v>305984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369619</v>
+        <v>366567</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3477458860219662</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3148542764295871</v>
+        <v>0.3159706305945828</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3816825387620785</v>
+        <v>0.378531474867781</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>766</v>
@@ -1074,19 +1074,19 @@
         <v>830278</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>783134</v>
+        <v>788958</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>874219</v>
+        <v>876469</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4301530689143472</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4057284819732419</v>
+        <v>0.4087455828114143</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4529180485324091</v>
+        <v>0.4540836592097073</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>334649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>307462</v>
+        <v>305892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>359872</v>
+        <v>360522</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4932126678629956</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.453143221036605</v>
+        <v>0.4508296209701582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5303866443449288</v>
+        <v>0.531344943248652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>447</v>
@@ -1199,19 +1199,19 @@
         <v>435463</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>408415</v>
+        <v>409397</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>460716</v>
+        <v>460459</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6367896217389867</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5972371314622289</v>
+        <v>0.5986724957848065</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6737176813286859</v>
+        <v>0.6733419017375605</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>771</v>
@@ -1220,19 +1220,19 @@
         <v>770112</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>733536</v>
+        <v>729556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>804919</v>
+        <v>804902</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5652821187597337</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5384341565132911</v>
+        <v>0.5355128604370258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.59083100910127</v>
+        <v>0.5908185241872385</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>343860</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>318637</v>
+        <v>317987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>371047</v>
+        <v>372617</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5067873321370043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4696133556550712</v>
+        <v>0.4686550567513474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5468567789633949</v>
+        <v>0.5491703790298416</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>249</v>
@@ -1270,19 +1270,19 @@
         <v>248378</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>223125</v>
+        <v>223382</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>275426</v>
+        <v>274444</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3632103782610133</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3262823186713141</v>
+        <v>0.3266580982624395</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4027628685377712</v>
+        <v>0.4013275042151935</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>566</v>
@@ -1291,19 +1291,19 @@
         <v>592238</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>557431</v>
+        <v>557448</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>628814</v>
+        <v>632794</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4347178812402663</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.40916899089873</v>
+        <v>0.4091814758127614</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4615658434867089</v>
+        <v>0.4644871395629742</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>437663</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>406004</v>
+        <v>407464</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>468688</v>
+        <v>466243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4645008486248292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4309007362148611</v>
+        <v>0.4324500283009815</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4974286593674018</v>
+        <v>0.4948336257792361</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>631</v>
@@ -1416,19 +1416,19 @@
         <v>656897</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>626725</v>
+        <v>622339</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>689247</v>
+        <v>684378</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6324757582963295</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6034259708310039</v>
+        <v>0.5992021607174214</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6636230832272112</v>
+        <v>0.6589349265138447</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1099</v>
@@ -1437,19 +1437,19 @@
         <v>1094560</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1051864</v>
+        <v>1052504</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1139076</v>
+        <v>1139278</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.55257523982955</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5310210058212677</v>
+        <v>0.5313439731883637</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5750486921780164</v>
+        <v>0.5751504314383831</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>504559</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>473534</v>
+        <v>475979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>536218</v>
+        <v>534758</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5354991513751708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5025713406325982</v>
+        <v>0.5051663742207639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5690992637851389</v>
+        <v>0.5675499716990187</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -1487,19 +1487,19 @@
         <v>381715</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>349365</v>
+        <v>354234</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>411887</v>
+        <v>416273</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3675242417036704</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3363769167727888</v>
+        <v>0.3410650734861553</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3965740291689962</v>
+        <v>0.4007978392825788</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>892</v>
@@ -1508,19 +1508,19 @@
         <v>886274</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>841758</v>
+        <v>841556</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>928970</v>
+        <v>928330</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.44742476017045</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4249513078219836</v>
+        <v>0.4248495685616169</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4689789941787325</v>
+        <v>0.4686560268116361</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1577663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1516624</v>
+        <v>1523394</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1631927</v>
+        <v>1641634</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4815024443660664</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4628732124690057</v>
+        <v>0.4649392775666743</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4980636854765476</v>
+        <v>0.5010263420372424</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2108</v>
@@ -1633,19 +1633,19 @@
         <v>2157045</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2095624</v>
+        <v>2104348</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2205612</v>
+        <v>2210545</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6383305878113095</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6201545164417686</v>
+        <v>0.6227361707410726</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6527030235810997</v>
+        <v>0.654162740395743</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3682</v>
@@ -1654,19 +1654,19 @@
         <v>3734709</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3650523</v>
+        <v>3660070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3814800</v>
+        <v>3818160</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5611259257641759</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5484772876512933</v>
+        <v>0.5499117436912321</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5731592627590186</v>
+        <v>0.5736641993934636</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1698880</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1644616</v>
+        <v>1634909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1759919</v>
+        <v>1753149</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5184975556339336</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5019363145234522</v>
+        <v>0.4989736579627577</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.537126787530994</v>
+        <v>0.5350607224333257</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1189</v>
@@ -1704,19 +1704,19 @@
         <v>1222152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1173585</v>
+        <v>1168652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1283573</v>
+        <v>1274849</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3616694121886906</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3472969764189004</v>
+        <v>0.345837259604257</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3798454835582315</v>
+        <v>0.3772638292589272</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2829</v>
@@ -1725,19 +1725,19 @@
         <v>2921032</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2840941</v>
+        <v>2837581</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3005218</v>
+        <v>2995671</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4388740742358242</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4268407372409814</v>
+        <v>0.4263358006065365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4515227123487064</v>
+        <v>0.450088256308768</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>425474</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>395719</v>
+        <v>399077</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>451869</v>
+        <v>451495</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6048221077419071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5625245931799497</v>
+        <v>0.5672993066331523</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6423440836166759</v>
+        <v>0.6418117137944702</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>451</v>
@@ -2090,19 +2090,19 @@
         <v>481347</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>456399</v>
+        <v>456947</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>505623</v>
+        <v>506174</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6905488416024073</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6547578231269302</v>
+        <v>0.6555440111040887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7253755151540398</v>
+        <v>0.7261663739107899</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>856</v>
@@ -2111,19 +2111,19 @@
         <v>906821</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>870359</v>
+        <v>869070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>942201</v>
+        <v>940689</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6474890195879336</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6214545128561068</v>
+        <v>0.6205343659515762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6727509756542471</v>
+        <v>0.6716714853190892</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>277995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251600</v>
+        <v>251974</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>307750</v>
+        <v>304392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3951778922580929</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3576559163833241</v>
+        <v>0.3581882862055298</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4374754068200496</v>
+        <v>0.4327006933668477</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>199</v>
@@ -2161,19 +2161,19 @@
         <v>215703</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>191427</v>
+        <v>190876</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240651</v>
+        <v>240103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3094511583975927</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2746244848459602</v>
+        <v>0.2738336260892101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3452421768730697</v>
+        <v>0.3444559888959112</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>468</v>
@@ -2182,19 +2182,19 @@
         <v>493698</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>458318</v>
+        <v>459830</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>530160</v>
+        <v>531449</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3525109804120665</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3272490243457529</v>
+        <v>0.3283285146809108</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3785454871438933</v>
+        <v>0.3794656340484238</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>552726</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>521019</v>
+        <v>519033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>583107</v>
+        <v>585756</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5429808536489488</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5118326647017789</v>
+        <v>0.5098817618008856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5728262581701503</v>
+        <v>0.575429209746103</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>668</v>
@@ -2307,19 +2307,19 @@
         <v>734789</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>705036</v>
+        <v>704080</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>766102</v>
+        <v>761830</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7118780119686702</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6830524663682583</v>
+        <v>0.6821261551584842</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7422141895454094</v>
+        <v>0.7380757743806095</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1176</v>
@@ -2328,19 +2328,19 @@
         <v>1287515</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1244131</v>
+        <v>1240770</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1332457</v>
+        <v>1332709</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6280158752914738</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6068545108121494</v>
+        <v>0.6052150676157171</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6499374345723355</v>
+        <v>0.6500602564180034</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>465221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>434840</v>
+        <v>432191</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>496928</v>
+        <v>498914</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4570191463510512</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4271737418298497</v>
+        <v>0.4245707902538974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4881673352982212</v>
+        <v>0.4901182381991144</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>272</v>
@@ -2378,19 +2378,19 @@
         <v>297395</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>266082</v>
+        <v>270354</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>327148</v>
+        <v>328104</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2881219880313299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2577858104545907</v>
+        <v>0.2619242256193905</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3169475336317421</v>
+        <v>0.3178738448415159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>700</v>
@@ -2399,19 +2399,19 @@
         <v>762616</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>717674</v>
+        <v>717422</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>806000</v>
+        <v>809361</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3719841247085261</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3500625654276644</v>
+        <v>0.3499397435819961</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3931454891878505</v>
+        <v>0.3947849323842824</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>380492</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>350993</v>
+        <v>350977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>412339</v>
+        <v>406809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5022178185526571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4632813130362968</v>
+        <v>0.4632601117831162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.544253873741551</v>
+        <v>0.536954406245268</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>472</v>
@@ -2524,19 +2524,19 @@
         <v>525491</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>498347</v>
+        <v>497242</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>553051</v>
+        <v>553414</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.676155978854</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6412297664708538</v>
+        <v>0.639808424865135</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7116174387492533</v>
+        <v>0.7120852125151544</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>813</v>
@@ -2545,19 +2545,19 @@
         <v>905983</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>862832</v>
+        <v>867215</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>945098</v>
+        <v>944927</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5902947359877339</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5621802091427331</v>
+        <v>0.5650353505876273</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6157805418782487</v>
+        <v>0.6156690625620481</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>377131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>345284</v>
+        <v>350814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>406630</v>
+        <v>406646</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4977821814473428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4557461262584489</v>
+        <v>0.4630455937547319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5367186869637031</v>
+        <v>0.5367398882168836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>233</v>
@@ -2595,19 +2595,19 @@
         <v>251683</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>224123</v>
+        <v>223760</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>278827</v>
+        <v>279932</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3238440211459999</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2883825612507466</v>
+        <v>0.2879147874848456</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3587702335291462</v>
+        <v>0.360191575134865</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>581</v>
@@ -2616,19 +2616,19 @@
         <v>628814</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>589699</v>
+        <v>589870</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>671965</v>
+        <v>667582</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4097052640122662</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3842194581217512</v>
+        <v>0.3843309374379518</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4378197908572669</v>
+        <v>0.4349646494123726</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>548259</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>514844</v>
+        <v>515417</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>579220</v>
+        <v>578042</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5784917759054767</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5432335836962081</v>
+        <v>0.5438383651837139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6111598507993323</v>
+        <v>0.6099168257949086</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>682</v>
@@ -2741,19 +2741,19 @@
         <v>720196</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>689698</v>
+        <v>688021</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>749279</v>
+        <v>747757</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6846612406396827</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6556683834638826</v>
+        <v>0.6540743612826413</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.712309740754352</v>
+        <v>0.7108623622326424</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1202</v>
@@ -2762,19 +2762,19 @@
         <v>1268455</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1224136</v>
+        <v>1231785</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1310365</v>
+        <v>1314769</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6343417017749737</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6121781257840989</v>
+        <v>0.61600349602728</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6553002881228613</v>
+        <v>0.6575026258106058</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>399480</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>368519</v>
+        <v>369697</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>432895</v>
+        <v>432322</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4215082240945233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3888401492006675</v>
+        <v>0.3900831742050912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4567664163037918</v>
+        <v>0.4561616348162861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>321</v>
@@ -2812,19 +2812,19 @@
         <v>331705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>302622</v>
+        <v>304144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362203</v>
+        <v>363880</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3153387593603173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2876902592456487</v>
+        <v>0.2891376377673576</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3443316165361175</v>
+        <v>0.3459256387173587</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>711</v>
@@ -2833,19 +2833,19 @@
         <v>731185</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>689275</v>
+        <v>684871</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>775504</v>
+        <v>767855</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3656582982250263</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3446997118771387</v>
+        <v>0.3424973741893946</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.387821874215901</v>
+        <v>0.3839965039727201</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1906951</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1846171</v>
+        <v>1840032</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1961433</v>
+        <v>1966127</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5564849286974062</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5387482455819056</v>
+        <v>0.5369566434017515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5723839599355716</v>
+        <v>0.5737535164392629</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2273</v>
@@ -2958,19 +2958,19 @@
         <v>2461823</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2407949</v>
+        <v>2405808</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2517617</v>
+        <v>2521939</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6918519034370659</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6767117199727849</v>
+        <v>0.6761099179606505</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7075318429644937</v>
+        <v>0.7087464418306317</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4047</v>
@@ -2979,19 +2979,19 @@
         <v>4368774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4285918</v>
+        <v>4278732</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4450438</v>
+        <v>4448535</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6254429060395802</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6135811387074114</v>
+        <v>0.6125523972633186</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6371340935000492</v>
+        <v>0.6368616847915314</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1519828</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1465346</v>
+        <v>1460652</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1580608</v>
+        <v>1586747</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4435150713025939</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4276160400644284</v>
+        <v>0.4262464835607371</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4612517544180944</v>
+        <v>0.4630433565982486</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1025</v>
@@ -3029,19 +3029,19 @@
         <v>1096486</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1040692</v>
+        <v>1036370</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1150360</v>
+        <v>1152501</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3081480965629341</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2924681570355062</v>
+        <v>0.2912535581693684</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.323288280027215</v>
+        <v>0.32389008203935</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2460</v>
@@ -3050,19 +3050,19 @@
         <v>2616314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2534650</v>
+        <v>2536553</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2699170</v>
+        <v>2706356</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3745570939604199</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3628659064999508</v>
+        <v>0.3631383152084686</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3864188612925886</v>
+        <v>0.3874476027366814</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>356577</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>328624</v>
+        <v>331685</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>381906</v>
+        <v>381825</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5284189498288744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4869947324249466</v>
+        <v>0.4915312933280391</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5659545797214377</v>
+        <v>0.5658347495464634</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>423</v>
@@ -3415,19 +3415,19 @@
         <v>441324</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>414714</v>
+        <v>417421</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>464063</v>
+        <v>466878</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6559129218886792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6163649148257807</v>
+        <v>0.6203872607584112</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6897086350827337</v>
+        <v>0.693892184948289</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>770</v>
@@ -3436,19 +3436,19 @@
         <v>797901</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>762520</v>
+        <v>761024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>836446</v>
+        <v>835244</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5920731751387428</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5658190281722668</v>
+        <v>0.5647087268261521</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6206747803292898</v>
+        <v>0.619782918663808</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>318223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>292894</v>
+        <v>292975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>346176</v>
+        <v>343115</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4715810501711256</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4340454202785622</v>
+        <v>0.4341652504535365</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5130052675750533</v>
+        <v>0.5084687066719609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>243</v>
@@ -3486,19 +3486,19 @@
         <v>231515</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>208776</v>
+        <v>205961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>258125</v>
+        <v>255418</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3440870781113208</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3102913649172663</v>
+        <v>0.306107815051711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3836350851742193</v>
+        <v>0.3796127392415887</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>548</v>
@@ -3507,19 +3507,19 @@
         <v>549738</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>511193</v>
+        <v>512395</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>585119</v>
+        <v>586615</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4079268248612572</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3793252196707103</v>
+        <v>0.380217081336192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4341809718277334</v>
+        <v>0.4352912731738481</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>528413</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>496609</v>
+        <v>493903</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>563267</v>
+        <v>559166</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5168204692922624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4857142812131297</v>
+        <v>0.4830677391171501</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5509094771331465</v>
+        <v>0.54689896845756</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>625</v>
@@ -3632,19 +3632,19 @@
         <v>684411</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>651963</v>
+        <v>652692</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>714507</v>
+        <v>718063</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6562489709187809</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6251363611857309</v>
+        <v>0.6258357806615946</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6851070031461146</v>
+        <v>0.6885167945733714</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1124</v>
@@ -3653,19 +3653,19 @@
         <v>1212824</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1164520</v>
+        <v>1166096</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1257865</v>
+        <v>1259944</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5872260761212691</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5638385116833113</v>
+        <v>0.5646011845702592</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6090339634592945</v>
+        <v>0.6100409547806123</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>494018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>459164</v>
+        <v>463265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>525822</v>
+        <v>528528</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4831795307077376</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4490905228668534</v>
+        <v>0.4531010315424399</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5142857187868703</v>
+        <v>0.5169322608828499</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>352</v>
@@ -3703,19 +3703,19 @@
         <v>358502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328406</v>
+        <v>324850</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>390950</v>
+        <v>390221</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3437510290812191</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3148929968538854</v>
+        <v>0.3114832054266285</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3748636388142691</v>
+        <v>0.3741642193384053</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>804</v>
@@ -3724,19 +3724,19 @@
         <v>852520</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>807479</v>
+        <v>805400</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>900824</v>
+        <v>899248</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4127739238787309</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3909660365407054</v>
+        <v>0.3899590452193876</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4361614883166883</v>
+        <v>0.4353988154297407</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>369005</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>340063</v>
+        <v>341237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>394633</v>
+        <v>395607</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4858186568259862</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4477158063767525</v>
+        <v>0.4492614134129941</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5195601674730321</v>
+        <v>0.5208419875400154</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>430</v>
@@ -3849,19 +3849,19 @@
         <v>471041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>444856</v>
+        <v>439832</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>498820</v>
+        <v>499045</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6000436689923826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5666879502477695</v>
+        <v>0.5602878656804196</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6354299517978507</v>
+        <v>0.635717490904071</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>771</v>
@@ -3870,19 +3870,19 @@
         <v>840045</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>793891</v>
+        <v>797428</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>875730</v>
+        <v>878760</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5438725334644565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5139905150290387</v>
+        <v>0.516280874974485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.56697564364671</v>
+        <v>0.5689378093744607</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>390547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>364919</v>
+        <v>363945</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>419489</v>
+        <v>418315</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5141813431740138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4804398325269679</v>
+        <v>0.4791580124599846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5522841936232475</v>
+        <v>0.5507385865870059</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>306</v>
@@ -3920,19 +3920,19 @@
         <v>313970</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>286191</v>
+        <v>285966</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>340155</v>
+        <v>345179</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3999563310076174</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3645700482021493</v>
+        <v>0.364282509095929</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4333120497522306</v>
+        <v>0.4397121343195804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>661</v>
@@ -3941,19 +3941,19 @@
         <v>704518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>668833</v>
+        <v>665803</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>750672</v>
+        <v>747135</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4561274665355435</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.43302435635329</v>
+        <v>0.4310621906255393</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4860094849709613</v>
+        <v>0.4837191250255146</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>518639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>490304</v>
+        <v>489201</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>549173</v>
+        <v>553275</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5531752150924248</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5229536462308846</v>
+        <v>0.5217768814941707</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5857425018940384</v>
+        <v>0.5901179615451351</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>590</v>
@@ -4066,19 +4066,19 @@
         <v>662561</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>629949</v>
+        <v>632362</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>691661</v>
+        <v>694663</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6347716090348648</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6035271340660909</v>
+        <v>0.6058385238395798</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6626511300283048</v>
+        <v>0.6655268777347295</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1109</v>
@@ -4087,19 +4087,19 @@
         <v>1181200</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1135516</v>
+        <v>1137783</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1219918</v>
+        <v>1224258</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5961604397829606</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5731034043217001</v>
+        <v>0.5742476154754507</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6157018807841136</v>
+        <v>0.6178922467639747</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>418928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>388394</v>
+        <v>384292</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>447263</v>
+        <v>448366</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4468247849075752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4142574981059614</v>
+        <v>0.409882038454865</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4770463537691154</v>
+        <v>0.4782231185058293</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>369</v>
@@ -4137,19 +4137,19 @@
         <v>381218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>352118</v>
+        <v>349116</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>413830</v>
+        <v>411417</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3652283909651351</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3373488699716951</v>
+        <v>0.3344731222652704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3964728659339091</v>
+        <v>0.3941614761604202</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>782</v>
@@ -4158,19 +4158,19 @@
         <v>800146</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>761428</v>
+        <v>757088</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>845830</v>
+        <v>843563</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4038395602170394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3842981192158866</v>
+        <v>0.3821077532360254</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4268965956783</v>
+        <v>0.4257523845245496</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1772634</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1712375</v>
+        <v>1714256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1830368</v>
+        <v>1834077</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5222306839753268</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5044779181213911</v>
+        <v>0.5050323128073535</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5392396948650187</v>
+        <v>0.5403322207537392</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2068</v>
@@ -4283,19 +4283,19 @@
         <v>2259337</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2200249</v>
+        <v>2203364</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2314291</v>
+        <v>2319045</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6374128260494004</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.620742961573084</v>
+        <v>0.6216215261893834</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6529166966170907</v>
+        <v>0.6542580386838661</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3774</v>
@@ -4304,19 +4304,19 @@
         <v>4031970</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3945209</v>
+        <v>3946901</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4111325</v>
+        <v>4114679</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5810683081933377</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5685646454208154</v>
+        <v>0.5688085759080134</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5925045735052676</v>
+        <v>0.5929878569635084</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1621716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1563982</v>
+        <v>1560273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1681975</v>
+        <v>1680094</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4777693160246733</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4607603051349813</v>
+        <v>0.4596677792462608</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.495522081878609</v>
+        <v>0.4949676871926467</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1270</v>
@@ -4354,19 +4354,19 @@
         <v>1285205</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1230251</v>
+        <v>1225497</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1344293</v>
+        <v>1341178</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3625871739505996</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3470833033829093</v>
+        <v>0.3457419613161339</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.379257038426916</v>
+        <v>0.3783784738106169</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2795</v>
@@ -4375,19 +4375,19 @@
         <v>2906922</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2827567</v>
+        <v>2824213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2993683</v>
+        <v>2991991</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4189316918066623</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4074954264947324</v>
+        <v>0.4070121430364915</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4314353545791844</v>
+        <v>0.4311914240919867</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>300935</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>275090</v>
+        <v>272655</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>329850</v>
+        <v>326781</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4356900776202684</v>
+        <v>0.4356900776202683</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3982716358192754</v>
+        <v>0.3947455474967618</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4775525237504941</v>
+        <v>0.4731084464334631</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>665</v>
@@ -4740,19 +4740,19 @@
         <v>361177</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>337352</v>
+        <v>340472</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>383877</v>
+        <v>384921</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.491945716383423</v>
+        <v>0.4919457163834232</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4594942956772627</v>
+        <v>0.4637439197358303</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5228644942874677</v>
+        <v>0.5242876231945596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1022</v>
@@ -4761,19 +4761,19 @@
         <v>662112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>626589</v>
+        <v>625564</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>697896</v>
+        <v>698368</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4646760150175079</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4397460100059175</v>
+        <v>0.4390267537068504</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4897898994489855</v>
+        <v>0.4901212103269789</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>389775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>360860</v>
+        <v>363929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>415620</v>
+        <v>418055</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5643099223797317</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5224474762495058</v>
+        <v>0.5268915535665371</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6017283641807245</v>
+        <v>0.6052544525032382</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>576</v>
@@ -4811,19 +4811,19 @@
         <v>373003</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350303</v>
+        <v>349259</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>396828</v>
+        <v>393708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5080542836165768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4771355057125323</v>
+        <v>0.4757123768054404</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.540505704322737</v>
+        <v>0.5362560802641697</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>949</v>
@@ -4832,19 +4832,19 @@
         <v>762777</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>726993</v>
+        <v>726521</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>798300</v>
+        <v>799325</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5353239849824921</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5102101005510146</v>
+        <v>0.509878789673021</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5602539899940826</v>
+        <v>0.5609732462931496</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>420519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>386281</v>
+        <v>387224</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>457345</v>
+        <v>457772</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4009075577355761</v>
+        <v>0.400907557735576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3682662305204129</v>
+        <v>0.3691651257816356</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4360160116669206</v>
+        <v>0.436423296803514</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>800</v>
@@ -4957,19 +4957,19 @@
         <v>523631</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>495488</v>
+        <v>494890</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>553039</v>
+        <v>553901</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4887015629756554</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4624358256478335</v>
+        <v>0.4618777946783781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5161477725604217</v>
+        <v>0.5169519825460849</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1234</v>
@@ -4978,19 +4978,19 @@
         <v>944150</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>900816</v>
+        <v>896533</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>990578</v>
+        <v>988908</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4452715456450307</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4248347527244428</v>
+        <v>0.4228151690212622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.467167387567535</v>
+        <v>0.4663798516493797</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>628398</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>591572</v>
+        <v>591145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>662636</v>
+        <v>661693</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.599092442264424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5639839883330794</v>
+        <v>0.563576703196486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6317337694795865</v>
+        <v>0.6308348742183644</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>717</v>
@@ -5028,19 +5028,19 @@
         <v>547843</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>518435</v>
+        <v>517573</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>575986</v>
+        <v>576584</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5112984370243446</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4838522274395786</v>
+        <v>0.483048017453915</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5375641743521667</v>
+        <v>0.5381222053216218</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1247</v>
@@ -5049,19 +5049,19 @@
         <v>1176241</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1129813</v>
+        <v>1131483</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1219575</v>
+        <v>1223858</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5547284543549691</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.532832612432465</v>
+        <v>0.5336201483506203</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5751652472755571</v>
+        <v>0.5771848309787382</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>318142</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286430</v>
+        <v>287306</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>349772</v>
+        <v>352831</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3961551530156573</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3566677333558606</v>
+        <v>0.3577579422944132</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4355415199458955</v>
+        <v>0.4393507459629139</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>486</v>
@@ -5174,19 +5174,19 @@
         <v>347322</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>322094</v>
+        <v>322078</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>374182</v>
+        <v>373687</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4276002034423305</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3965413985453944</v>
+        <v>0.3965213571633005</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4606682873067892</v>
+        <v>0.4600593782840514</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>781</v>
@@ -5195,19 +5195,19 @@
         <v>665464</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>624787</v>
+        <v>624977</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>707749</v>
+        <v>705350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4119670854270022</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3867852941404265</v>
+        <v>0.386903407800155</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4381447316009471</v>
+        <v>0.4366594635971069</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>484931</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>453301</v>
+        <v>450242</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>516643</v>
+        <v>515767</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6038448469843427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5644584800541043</v>
+        <v>0.5606492540370861</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6433322666441393</v>
+        <v>0.6422420577055868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>561</v>
@@ -5245,19 +5245,19 @@
         <v>464937</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>438077</v>
+        <v>438572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>490165</v>
+        <v>490181</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5723997965576695</v>
+        <v>0.5723997965576696</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5393317126932108</v>
+        <v>0.5399406217159487</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6034586014546057</v>
+        <v>0.6034786428366994</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>942</v>
@@ -5266,19 +5266,19 @@
         <v>949868</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>907583</v>
+        <v>909982</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>990545</v>
+        <v>990355</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5880329145729978</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5618552683990528</v>
+        <v>0.5633405364028932</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6132147058595732</v>
+        <v>0.613096592199845</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>358387</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>328078</v>
+        <v>325967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>391097</v>
+        <v>392283</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3619840385863385</v>
+        <v>0.3619840385863386</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3313709117046111</v>
+        <v>0.3292392879249163</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3950223311618239</v>
+        <v>0.3962210499590872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>749</v>
@@ -5391,19 +5391,19 @@
         <v>496659</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>467454</v>
+        <v>467775</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>526774</v>
+        <v>528478</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4438251526103567</v>
+        <v>0.4438251526103566</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4177272703198168</v>
+        <v>0.4180145672033626</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4707366913233113</v>
+        <v>0.4722598706925556</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1157</v>
@@ -5412,19 +5412,19 @@
         <v>855046</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>811165</v>
+        <v>813265</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>898804</v>
+        <v>897538</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4054070326553252</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3846019374317755</v>
+        <v>0.3855973588912897</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4261544447823804</v>
+        <v>0.425553992867076</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>631675</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>598965</v>
+        <v>597779</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>661984</v>
+        <v>664095</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6380159614136615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6049776688381761</v>
+        <v>0.6037789500409126</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6686290882953888</v>
+        <v>0.670760712075083</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>813</v>
@@ -5462,19 +5462,19 @@
         <v>622382</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>592267</v>
+        <v>590563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>651587</v>
+        <v>651266</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5561748473896435</v>
+        <v>0.5561748473896434</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5292633086766887</v>
+        <v>0.5277401293074453</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5822727296801831</v>
+        <v>0.5819854327966375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1411</v>
@@ -5483,19 +5483,19 @@
         <v>1254058</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1210300</v>
+        <v>1211566</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1297939</v>
+        <v>1295839</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5945929673446747</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5738455552176196</v>
+        <v>0.5744460071329238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6153980625682245</v>
+        <v>0.6144026411087105</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1397982</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1329984</v>
+        <v>1332900</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1461028</v>
+        <v>1460978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3957193747553512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3764715311119881</v>
+        <v>0.3772969754943422</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4135653995708038</v>
+        <v>0.4135511121450581</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2700</v>
@@ -5608,19 +5608,19 @@
         <v>1728788</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1676313</v>
+        <v>1671174</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1781687</v>
+        <v>1782482</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4626196595747554</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4485774039721955</v>
+        <v>0.4472022786515296</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4767751339296522</v>
+        <v>0.4769880657244705</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4194</v>
@@ -5629,19 +5629,19 @@
         <v>3126771</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3046216</v>
+        <v>3039434</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3215947</v>
+        <v>3215205</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.430109066940141</v>
+        <v>0.4301090669401409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4190281585896568</v>
+        <v>0.4180952934597718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4423758749349641</v>
+        <v>0.4422737715511155</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2134780</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2071734</v>
+        <v>2071784</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2202778</v>
+        <v>2199862</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.604280625244649</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5864346004291962</v>
+        <v>0.5864488878549418</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6235284688880118</v>
+        <v>0.6227030245056577</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2667</v>
@@ -5679,19 +5679,19 @@
         <v>2008166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1955267</v>
+        <v>1954472</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2060641</v>
+        <v>2065780</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5373803404252445</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5232248660703478</v>
+        <v>0.5230119342755294</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5514225960278045</v>
+        <v>0.5527977213484703</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4549</v>
@@ -5700,19 +5700,19 @@
         <v>4142945</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4053769</v>
+        <v>4054511</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4223500</v>
+        <v>4230282</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5698909330598591</v>
+        <v>0.5698909330598588</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5576241250650359</v>
+        <v>0.5577262284488845</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5809718414103436</v>
+        <v>0.5819047065402284</v>
       </c>
     </row>
     <row r="18">
